--- a/documentation/metrics.xlsx
+++ b/documentation/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lexi Brown\Documents\skydot\Skydot\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51567581-6C6B-4DD6-86FD-029DC7CB83B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927F953B-E699-4C33-B224-6E3C985BD5E5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="57600" windowHeight="19410" xr2:uid="{9C2C63A0-6B92-47D4-B245-93EF65F757F0}"/>
   </bookViews>
@@ -725,7 +725,7 @@
   <dimension ref="A3:AM151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
